--- a/src/activities/data/paralympics_all_raw.xlsx
+++ b/src/activities/data/paralympics_all_raw.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahsanders/PycharmProjects/COMP0035-tutorials-2025/src/activities/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BC4DF-8713-5040-AABB-43138628CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1159D-564B-A646-B168-9F70EFB703C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" activeTab="1" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
     <sheet name="team_codes" sheetId="3" r:id="rId2"/>
     <sheet name="medal_standings" sheetId="2" r:id="rId3"/>
+    <sheet name="games-team-summer" sheetId="4" r:id="rId4"/>
+    <sheet name="games-team-winter" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">medal_standings!$A$1:$I$818</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="842">
   <si>
     <t>type</t>
   </si>
@@ -1934,6 +1936,636 @@
   </si>
   <si>
     <t>TeamName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chinese Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curaçao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Czechoslovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gibraltar</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Great Britain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lebanon</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soviet Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unified Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neutral Paralympic Athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent Paralympic Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yugoslavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singapore</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhodesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individual Paralympic Athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent Paralympic Athletes</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refugee Paralympic Team</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5B346-9586-614E-9210-4DD6279EFFF5}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4409,7 +5041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC56371-D200-B74F-9E67-4182648D118E}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -32342,4 +32974,8277 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938F4EE-869D-C949-9B7A-80D5CA39FF30}">
+  <dimension ref="A1:S206"/>
+  <sheetViews>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1">
+        <v>1960</v>
+      </c>
+      <c r="D1">
+        <v>1964</v>
+      </c>
+      <c r="E1">
+        <v>1968</v>
+      </c>
+      <c r="F1">
+        <v>1972</v>
+      </c>
+      <c r="G1">
+        <v>1976</v>
+      </c>
+      <c r="H1">
+        <v>1980</v>
+      </c>
+      <c r="I1">
+        <v>1984</v>
+      </c>
+      <c r="J1">
+        <v>1988</v>
+      </c>
+      <c r="K1">
+        <v>1992</v>
+      </c>
+      <c r="L1">
+        <v>1996</v>
+      </c>
+      <c r="M1">
+        <v>2000</v>
+      </c>
+      <c r="N1">
+        <v>2004</v>
+      </c>
+      <c r="O1">
+        <v>2008</v>
+      </c>
+      <c r="P1">
+        <v>2012</v>
+      </c>
+      <c r="Q1">
+        <v>2016</v>
+      </c>
+      <c r="R1">
+        <v>2020</v>
+      </c>
+      <c r="S1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" t="s">
+        <v>410</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" t="s">
+        <v>412</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" t="s">
+        <v>414</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>648</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>651</v>
+      </c>
+      <c r="B21" t="s">
+        <v>420</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>652</v>
+      </c>
+      <c r="B22" t="s">
+        <v>422</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" t="s">
+        <v>426</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>657</v>
+      </c>
+      <c r="B27" t="s">
+        <v>429</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>658</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>659</v>
+      </c>
+      <c r="B29" t="s">
+        <v>431</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>660</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>661</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>662</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>663</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>664</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>665</v>
+      </c>
+      <c r="B35" t="s">
+        <v>434</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>666</v>
+      </c>
+      <c r="B36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>667</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>668</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>669</v>
+      </c>
+      <c r="B39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>670</v>
+      </c>
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>671</v>
+      </c>
+      <c r="B41" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B42" t="s">
+        <v>449</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>673</v>
+      </c>
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>674</v>
+      </c>
+      <c r="B44" t="s">
+        <v>455</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>675</v>
+      </c>
+      <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>676</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>677</v>
+      </c>
+      <c r="B47" t="s">
+        <v>289</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>678</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>679</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>680</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>681</v>
+      </c>
+      <c r="B51" t="s">
+        <v>458</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>683</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>684</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>685</v>
+      </c>
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>686</v>
+      </c>
+      <c r="B56" t="s">
+        <v>464</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>687</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>688</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>689</v>
+      </c>
+      <c r="B59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>690</v>
+      </c>
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>691</v>
+      </c>
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>692</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>693</v>
+      </c>
+      <c r="B63" t="s">
+        <v>472</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>694</v>
+      </c>
+      <c r="B64" t="s">
+        <v>474</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>695</v>
+      </c>
+      <c r="B65" t="s">
+        <v>333</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>696</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>697</v>
+      </c>
+      <c r="B67" t="s">
+        <v>622</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>698</v>
+      </c>
+      <c r="B68" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>699</v>
+      </c>
+      <c r="B69" t="s">
+        <v>700</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>701</v>
+      </c>
+      <c r="B70" t="s">
+        <v>480</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>702</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>703</v>
+      </c>
+      <c r="B72" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>704</v>
+      </c>
+      <c r="B73" t="s">
+        <v>484</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>705</v>
+      </c>
+      <c r="B74" t="s">
+        <v>486</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>706</v>
+      </c>
+      <c r="B75" t="s">
+        <v>490</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>707</v>
+      </c>
+      <c r="B76" t="s">
+        <v>476</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>494</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>709</v>
+      </c>
+      <c r="B78" t="s">
+        <v>496</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>710</v>
+      </c>
+      <c r="B79" t="s">
+        <v>498</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>711</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>712</v>
+      </c>
+      <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>714</v>
+      </c>
+      <c r="B83" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>715</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>716</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>717</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>718</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>719</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>720</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>721</v>
+      </c>
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>722</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>723</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>724</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>725</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>726</v>
+      </c>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>727</v>
+      </c>
+      <c r="B96" t="s">
+        <v>512</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>728</v>
+      </c>
+      <c r="B97" t="s">
+        <v>563</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>729</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>730</v>
+      </c>
+      <c r="B99" t="s">
+        <v>514</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>731</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>732</v>
+      </c>
+      <c r="B101" t="s">
+        <v>510</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>733</v>
+      </c>
+      <c r="B102" t="s">
+        <v>311</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>734</v>
+      </c>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>735</v>
+      </c>
+      <c r="B104" t="s">
+        <v>736</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>737</v>
+      </c>
+      <c r="B105" t="s">
+        <v>520</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>738</v>
+      </c>
+      <c r="B106" t="s">
+        <v>516</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>739</v>
+      </c>
+      <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>740</v>
+      </c>
+      <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>741</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>742</v>
+      </c>
+      <c r="B110" t="s">
+        <v>522</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>743</v>
+      </c>
+      <c r="B111" t="s">
+        <v>524</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>744</v>
+      </c>
+      <c r="B112" t="s">
+        <v>526</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>745</v>
+      </c>
+      <c r="B113" t="s">
+        <v>528</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>747</v>
+      </c>
+      <c r="B115" t="s">
+        <v>530</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>748</v>
+      </c>
+      <c r="B116" t="s">
+        <v>534</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>749</v>
+      </c>
+      <c r="B117" t="s">
+        <v>536</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>750</v>
+      </c>
+      <c r="B118" t="s">
+        <v>542</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>751</v>
+      </c>
+      <c r="B119" t="s">
+        <v>540</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>752</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>753</v>
+      </c>
+      <c r="B121" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>754</v>
+      </c>
+      <c r="B122" t="s">
+        <v>298</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>755</v>
+      </c>
+      <c r="B123" t="s">
+        <v>349</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>756</v>
+      </c>
+      <c r="B124" t="s">
+        <v>282</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>757</v>
+      </c>
+      <c r="B125" t="s">
+        <v>341</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>758</v>
+      </c>
+      <c r="B126" t="s">
+        <v>546</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>759</v>
+      </c>
+      <c r="B127" t="s">
+        <v>313</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>760</v>
+      </c>
+      <c r="B128" t="s">
+        <v>553</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>761</v>
+      </c>
+      <c r="B129" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>762</v>
+      </c>
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>763</v>
+      </c>
+      <c r="B131" t="s">
+        <v>549</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>764</v>
+      </c>
+      <c r="B132" t="s">
+        <v>555</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>765</v>
+      </c>
+      <c r="B133" t="s">
+        <v>209</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>766</v>
+      </c>
+      <c r="B134" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>767</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>768</v>
+      </c>
+      <c r="B136" t="s">
+        <v>351</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>769</v>
+      </c>
+      <c r="B137" t="s">
+        <v>303</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>770</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>771</v>
+      </c>
+      <c r="B139" t="s">
+        <v>217</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>772</v>
+      </c>
+      <c r="B140" t="s">
+        <v>305</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>773</v>
+      </c>
+      <c r="B141" t="s">
+        <v>559</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>774</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>775</v>
+      </c>
+      <c r="B143" t="s">
+        <v>278</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>776</v>
+      </c>
+      <c r="B144" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>777</v>
+      </c>
+      <c r="B145" t="s">
+        <v>205</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>778</v>
+      </c>
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>779</v>
+      </c>
+      <c r="B147" t="s">
+        <v>335</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>780</v>
+      </c>
+      <c r="B148" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>781</v>
+      </c>
+      <c r="B149" t="s">
+        <v>241</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>782</v>
+      </c>
+      <c r="B150" t="s">
+        <v>353</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>783</v>
+      </c>
+      <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>784</v>
+      </c>
+      <c r="B152" t="s">
+        <v>360</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>785</v>
+      </c>
+      <c r="B153" t="s">
+        <v>359</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>786</v>
+      </c>
+      <c r="B154" t="s">
+        <v>294</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>787</v>
+      </c>
+      <c r="B155" t="s">
+        <v>616</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>788</v>
+      </c>
+      <c r="B156" t="s">
+        <v>571</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>789</v>
+      </c>
+      <c r="B157" t="s">
+        <v>583</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>790</v>
+      </c>
+      <c r="B158" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>791</v>
+      </c>
+      <c r="B159" t="s">
+        <v>362</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>792</v>
+      </c>
+      <c r="B160" t="s">
+        <v>575</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>793</v>
+      </c>
+      <c r="B161" t="s">
+        <v>300</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>794</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>795</v>
+      </c>
+      <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>796</v>
+      </c>
+      <c r="B164" t="s">
+        <v>250</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>797</v>
+      </c>
+      <c r="B165" t="s">
+        <v>577</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>798</v>
+      </c>
+      <c r="B166" t="s">
+        <v>581</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>799</v>
+      </c>
+      <c r="B167" t="s">
+        <v>800</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>801</v>
+      </c>
+      <c r="B168" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>802</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>803</v>
+      </c>
+      <c r="B170" t="s">
+        <v>585</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>804</v>
+      </c>
+      <c r="B171" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>805</v>
+      </c>
+      <c r="B172" t="s">
+        <v>201</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>1</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>806</v>
+      </c>
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173">
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>807</v>
+      </c>
+      <c r="B174" t="s">
+        <v>326</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>808</v>
+      </c>
+      <c r="B175" t="s">
+        <v>593</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>809</v>
+      </c>
+      <c r="B176" t="s">
+        <v>595</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>810</v>
+      </c>
+      <c r="B177" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>811</v>
+      </c>
+      <c r="B178" t="s">
+        <v>194</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="S178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>812</v>
+      </c>
+      <c r="B179" t="s">
+        <v>315</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>1</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>813</v>
+      </c>
+      <c r="B180" t="s">
+        <v>603</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>814</v>
+      </c>
+      <c r="B181" t="s">
+        <v>599</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>815</v>
+      </c>
+      <c r="B182" t="s">
+        <v>237</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>816</v>
+      </c>
+      <c r="B183" t="s">
+        <v>607</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>817</v>
+      </c>
+      <c r="B184" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>818</v>
+      </c>
+      <c r="B185" t="s">
+        <v>601</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>819</v>
+      </c>
+      <c r="B186" t="s">
+        <v>820</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>821</v>
+      </c>
+      <c r="B187" t="s">
+        <v>258</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>822</v>
+      </c>
+      <c r="B188" t="s">
+        <v>285</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>823</v>
+      </c>
+      <c r="B189" t="s">
+        <v>605</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>824</v>
+      </c>
+      <c r="B190" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+      <c r="R190">
+        <v>1</v>
+      </c>
+      <c r="S190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>825</v>
+      </c>
+      <c r="B191" t="s">
+        <v>254</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>826</v>
+      </c>
+      <c r="B192" t="s">
+        <v>266</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>827</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>828</v>
+      </c>
+      <c r="B194" t="s">
+        <v>263</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>829</v>
+      </c>
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>830</v>
+      </c>
+      <c r="B196" t="s">
+        <v>614</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>1</v>
+      </c>
+      <c r="S196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>831</v>
+      </c>
+      <c r="B197" t="s">
+        <v>239</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>832</v>
+      </c>
+      <c r="B198" t="s">
+        <v>328</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>1</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>833</v>
+      </c>
+      <c r="B199" t="s">
+        <v>506</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>834</v>
+      </c>
+      <c r="B200" t="s">
+        <v>618</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>835</v>
+      </c>
+      <c r="B201" t="s">
+        <v>620</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>836</v>
+      </c>
+      <c r="B202" t="s">
+        <v>264</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="P202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>837</v>
+      </c>
+      <c r="B203" t="s">
+        <v>624</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>838</v>
+      </c>
+      <c r="B204" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>839</v>
+      </c>
+      <c r="B205" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>841</v>
+      </c>
+      <c r="B206" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F525A50-4F06-8941-B464-941C115EFA64}">
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1">
+        <v>1976</v>
+      </c>
+      <c r="D1">
+        <v>1980</v>
+      </c>
+      <c r="E1">
+        <v>1984</v>
+      </c>
+      <c r="F1">
+        <v>1988</v>
+      </c>
+      <c r="G1">
+        <v>1992</v>
+      </c>
+      <c r="H1">
+        <v>1994</v>
+      </c>
+      <c r="I1">
+        <v>1998</v>
+      </c>
+      <c r="J1">
+        <v>2002</v>
+      </c>
+      <c r="K1">
+        <v>2006</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2014</v>
+      </c>
+      <c r="N1">
+        <v>2018</v>
+      </c>
+      <c r="O1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>667</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>678</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>679</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>680</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>695</v>
+      </c>
+      <c r="B23" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>696</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>698</v>
+      </c>
+      <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>702</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>712</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>713</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>716</v>
+      </c>
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>719</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>720</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>723</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>725</v>
+      </c>
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>729</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>734</v>
+      </c>
+      <c r="B36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>740</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>741</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>752</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>754</v>
+      </c>
+      <c r="B40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>761</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>762</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>767</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>728</v>
+      </c>
+      <c r="B44" t="s">
+        <v>563</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>776</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>778</v>
+      </c>
+      <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>780</v>
+      </c>
+      <c r="B47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>781</v>
+      </c>
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>783</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>782</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>785</v>
+      </c>
+      <c r="B51" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>793</v>
+      </c>
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>796</v>
+      </c>
+      <c r="B53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>801</v>
+      </c>
+      <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>802</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>805</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>806</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>810</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>811</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>813</v>
+      </c>
+      <c r="B60" t="s">
+        <v>603</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>822</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>824</v>
+      </c>
+      <c r="B62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>825</v>
+      </c>
+      <c r="B63" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>827</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>829</v>
+      </c>
+      <c r="B65" t="s">
+        <v>323</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/activities/data/paralympics_all_raw.xlsx
+++ b/src/activities/data/paralympics_all_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahsanders/PycharmProjects/COMP0035-tutorials-2025/src/activities/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1159D-564B-A646-B168-9F70EFB703C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E298C3-1EF2-0C4B-96E1-5B20F1A5FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
   </bookViews>
@@ -3440,7 +3440,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
